--- a/biology/Médecine/Jean_Labbé_(pédiatre)/Jean_Labbé_(pédiatre).xlsx
+++ b/biology/Médecine/Jean_Labbé_(pédiatre)/Jean_Labbé_(pédiatre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Labb%C3%A9_(p%C3%A9diatre)</t>
+          <t>Jean_Labbé_(pédiatre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Labbé est un pédiatre et professeur québécois né à Thetford Mines en 1947[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Labbé est un pédiatre et professeur québécois né à Thetford Mines en 1947.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Labb%C3%A9_(p%C3%A9diatre)</t>
+          <t>Jean_Labbé_(pédiatre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Jean Labbé, maintenant retraité, a passé toute sa vie professionnelle au Centre hospitalier de l’Université Laval et a été professeur titulaire au département de pédiatrie de l’Université Laval. C’est à Québec qu’il a fait ses études médicales et une partie de sa résidence en pédiatrie, qu’il a complétée par un an à L’Hôpital de Montréal pour enfants et une autre année à l’Hôpital Sainte-Justine. Au cours de sa carrière, il s’est consacré principalement à la pédiatrie ambulatoire et a mis sur pied des cliniques d’infection urinaire et d’énurésie. Conscient du fait que les visites médicales sont trop courtes pour répondre aux besoins d’information des nouveaux parents, il a rédigé des Bulletins d’information adaptés à chacune des visites périodiques recommandées entre la naissance et l’âge de cinq ans. Ces documents ont été rendus disponibles à l’ensemble des parents québécois avec le concours de la faculté de médecine de l’Université Laval. Le docteur Labbé a également été consultant pendant dix ans en soins pédiatriques dans le Nunavik, au Nord-du-Québec.
 Il a développé une expertise médicale en protection de l’enfance, ce qui l’a amené à créer des comités de protection de l’enfance dans les hôpitaux de Québec ainsi qu’un comité régional d’examen des décès d’enfants. Il a participé à la formation en maltraitance des médecins et d’autres intervenants sur les scènes régionale, provinciale, nationale et internationale. Il a également été conseiller en France pour l’élaboration de guides de pratique sur la protection des enfants. Il a rédigé de nombreuses publications pour des revues dotées de comités de pairs, dont certaines portaient sur des recherches originales1. À la retraite, il a publié un livre sur l’histoire des mauvais traitements envers les enfants à travers les siècles. Le docteur Jean Labbé est membre d’honneur de la Société Française de Pédiatrie Médico-Légale.
